--- a/Project.WebApplication/TemplateFile/员工模版.xlsx
+++ b/Project.WebApplication/TemplateFile/员工模版.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -19,6 +19,8 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
+    <author>Roy</author>
+    <author/>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -30,101 +32,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">机构编号，导入前请根据系统填入
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
           <t xml:space="preserve">必填项
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>必填项：0女 1男；
-请填写0或1的数字</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>请根据日期格式写</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1：在职
-2：离职
-3：退休
-不填默认</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> 1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1：正式工
-0：临时工
-不填则默认0</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,8 +46,141 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">初始化必填：不填则不修改原有数据
+          <t xml:space="preserve">必填项：0女 1男；
+请填写0或1的数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">请根据日期格式写</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">请根据日期格式写</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">请根据日期格式写
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">根据数据字典里的值
+如现在0是员工  1：院长 2主任
+填写 0 1 2这三个值
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">根据数据字典里的值
+如现在   1：专业技术人员 2管理人员 3工勤人员
+填写 0 1 2这三个值
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">根据数据字典里的值
+如现在   1:在职 2:离职 3:退休 4:其它
+填写 1 2 3 4这三个值
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">根据数据字典里的值
+如现在   1:正式工 0:岗位合同工
+填写 0 1 这两个值
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">根据数据字典里的值
+如现在  3:三 4:四 5:五 6:六 7:七以此类推
+填写 3-13之间的值
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">员工编号,请根据目前的编号往上加.不重复</t>
         </r>
       </text>
     </comment>
@@ -143,107 +189,237 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>所属机构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>员工名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工工员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工编号</t>
   </si>
   <si>
     <t>姓别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
   </si>
   <si>
     <t>生日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加工作时间</t>
+  </si>
+  <si>
+    <t>单位职务</t>
+  </si>
+  <si>
+    <t>岗位性质</t>
+  </si>
+  <si>
+    <t>入党时间</t>
   </si>
   <si>
     <t>在职状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>员工类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位等级</t>
   </si>
   <si>
     <t>手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>家庭地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>李时针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>330327198805142350</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>浙江省杭州市西湖区西斗门路7号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,12 +428,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -267,52 +635,345 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -602,125 +1263,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="51.25" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="23.25" customWidth="1"/>
+    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="14" max="14" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>10102</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>10001</v>
       </c>
       <c r="C2">
-        <v>10001</v>
-      </c>
-      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5">
         <v>32277</v>
       </c>
+      <c r="F2" s="6">
+        <v>39582</v>
+      </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="6">
+        <v>39582</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2">
         <v>13989485176</v>
       </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="9:9">
+      <c r="I3" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Project.WebApplication/TemplateFile/员工模版.xlsx
+++ b/Project.WebApplication/TemplateFile/员工模版.xlsx
@@ -7,9 +7,13 @@
     <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="基本信息" sheetId="1" r:id="rId1"/>
+    <sheet name="工作经历" sheetId="2" r:id="rId2"/>
+    <sheet name="学习经历" sheetId="3" r:id="rId3"/>
+    <sheet name="继续教育学分" sheetId="4" r:id="rId4"/>
+    <sheet name="职称记录" sheetId="5" r:id="rId5"/>
+    <sheet name="专业技术资格" sheetId="6" r:id="rId6"/>
+    <sheet name="年度考核" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -188,8 +192,244 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">日期格式例：2008/05/13
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">日期格式例：2008/05/13
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">根据数据字典中学历类型来填
+如大专:3 
+本科:4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">根据数据字典中学历类型来填
+如一年制:1 
+两年制:2
+四年制:4
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">日期格式例：2008/05/13
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">日期格式例：2008/05/13
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">根据数据字典中学分类型来填
+如I类： 1
+II类：2
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">日期格式例：2008/05/13</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">根据数据字典中技术职称来填
+如I初级： 1
+中级：2
+高级：2
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">日期格式例：2008/05/13</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">日期格式例：2008/05/13</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">日期格式例：2008/05/13</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">日期格式例：2008/05/13</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>员工名称</t>
   </si>
@@ -236,10 +476,118 @@
     <t>李时针</t>
   </si>
   <si>
+    <t>00000001</t>
+  </si>
+  <si>
     <t>330327198805142350</t>
   </si>
   <si>
     <t>浙江省杭州市西湖区西斗门路7号</t>
+  </si>
+  <si>
+    <t>工作单位</t>
+  </si>
+  <si>
+    <t>职务</t>
+  </si>
+  <si>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <t>结束日期</t>
+  </si>
+  <si>
+    <t>工作内容</t>
+  </si>
+  <si>
+    <t>医院</t>
+  </si>
+  <si>
+    <t>管理层</t>
+  </si>
+  <si>
+    <t>管理日常事务</t>
+  </si>
+  <si>
+    <t>毕业院校</t>
+  </si>
+  <si>
+    <t>专业</t>
+  </si>
+  <si>
+    <t>学位</t>
+  </si>
+  <si>
+    <t>学历</t>
+  </si>
+  <si>
+    <t>学制</t>
+  </si>
+  <si>
+    <t>证书编号</t>
+  </si>
+  <si>
+    <t>入学日期</t>
+  </si>
+  <si>
+    <t>毕业日期</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>温医大</t>
+  </si>
+  <si>
+    <t>护士</t>
+  </si>
+  <si>
+    <t>学士</t>
+  </si>
+  <si>
+    <t>学分类型</t>
+  </si>
+  <si>
+    <t>分数</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>取得时间</t>
+  </si>
+  <si>
+    <t>职称证书编号</t>
+  </si>
+  <si>
+    <t>执业类别</t>
+  </si>
+  <si>
+    <t>执业范围</t>
+  </si>
+  <si>
+    <t>聘用时间</t>
+  </si>
+  <si>
+    <t>聘用结束时间</t>
+  </si>
+  <si>
+    <t>执业范围测试</t>
+  </si>
+  <si>
+    <t>考核年度</t>
+  </si>
+  <si>
+    <t>评价</t>
+  </si>
+  <si>
+    <t>优秀</t>
   </si>
 </sst>
 </file>
@@ -252,7 +600,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,21 +618,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,7 +645,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -343,8 +682,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,7 +731,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,31 +745,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,13 +754,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,7 +775,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,43 +811,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,133 +943,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,21 +984,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -684,6 +1004,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,22 +1067,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,148 +1086,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -900,6 +1235,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -909,16 +1253,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1265,17 +1606,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="9" max="9" width="12.75" customWidth="1"/>
@@ -1285,46 +1626,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1332,19 +1673,19 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
-        <v>10001</v>
+      <c r="B2" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2">
         <v>32277</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="2">
         <v>39582</v>
       </c>
       <c r="G2">
@@ -1353,7 +1694,7 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="2">
         <v>39582</v>
       </c>
       <c r="J2">
@@ -1369,11 +1710,8 @@
         <v>13989485176</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="9:9">
-      <c r="I3" s="7"/>
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1386,33 +1724,382 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="5" width="10.375"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3">
+        <v>39582</v>
+      </c>
+      <c r="E2" s="3">
+        <v>41043</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>123456</v>
+      </c>
+      <c r="H2" s="3">
+        <v>38121</v>
+      </c>
+      <c r="I2" s="3">
+        <v>39582</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>99</v>
+      </c>
+      <c r="D2" s="2">
+        <v>39581</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="10.375"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>39581</v>
+      </c>
+      <c r="E2">
+        <v>1234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="10.375"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="10.375"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>1111</v>
+      </c>
+      <c r="C2">
+        <v>1111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2">
+        <v>39581</v>
+      </c>
+      <c r="F2">
+        <v>123456</v>
+      </c>
+      <c r="G2" s="2">
+        <v>39581</v>
+      </c>
+      <c r="H2" s="2">
+        <v>39581</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>2014</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Project.WebApplication/TemplateFile/员工模版.xlsx
+++ b/Project.WebApplication/TemplateFile/员工模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="27840" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1">
+    <comment ref="G1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -81,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="2">
+    <comment ref="J1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1">
+    <comment ref="H1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1">
+    <comment ref="I1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -127,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="2">
+    <comment ref="K1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="2">
+    <comment ref="L1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -159,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="2">
+    <comment ref="M1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -429,12 +429,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>员工名称</t>
   </si>
   <si>
     <t>员工编号</t>
+  </si>
+  <si>
+    <t>工号</t>
   </si>
   <si>
     <t>姓别</t>
@@ -595,10 +598,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -617,6 +620,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -624,22 +634,46 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,30 +687,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,32 +717,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,13 +755,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -775,13 +778,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,169 +916,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,24 +989,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,18 +1001,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1044,6 +1023,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1054,6 +1048,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,171 +1092,168 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1606,111 +1606,117 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="23.25" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
-    <col min="14" max="14" width="30.75" customWidth="1"/>
+    <col min="2" max="3" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="19.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="23.25" customWidth="1"/>
+    <col min="14" max="14" width="12.625" customWidth="1"/>
+    <col min="15" max="15" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2">
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1">
         <v>32277</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="1">
         <v>39582</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="1">
         <v>39582</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>7</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>13989485176</v>
       </c>
-      <c r="N2" t="s">
-        <v>17</v>
+      <c r="O2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1743,39 +1749,39 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
-        <v>15</v>
+      <c r="A2" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="3">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1">
         <v>39582</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>41043</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1807,45 +1813,45 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="9" t="s">
-        <v>15</v>
+      <c r="A2" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -1856,14 +1862,14 @@
       <c r="G2">
         <v>123456</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <v>38121</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="1">
         <v>39582</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1891,22 +1897,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="9" t="s">
-        <v>15</v>
+      <c r="A2" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1914,7 +1920,7 @@
       <c r="C2">
         <v>99</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>39581</v>
       </c>
     </row>
@@ -1943,25 +1949,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
-        <v>15</v>
+      <c r="A2" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -1969,7 +1975,7 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>39581</v>
       </c>
       <c r="E2">
@@ -2004,34 +2010,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="9" t="s">
-        <v>15</v>
+      <c r="A2" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B2">
         <v>1111</v>
@@ -2040,18 +2046,18 @@
         <v>1111</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="2">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1">
         <v>39581</v>
       </c>
       <c r="F2">
         <v>123456</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>39581</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>39581</v>
       </c>
     </row>
@@ -2077,25 +2083,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="9" t="s">
-        <v>15</v>
+      <c r="A2" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B2">
         <v>2014</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Project.WebApplication/TemplateFile/员工模版.xlsx
+++ b/Project.WebApplication/TemplateFile/员工模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27840" windowHeight="12045"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
@@ -188,6 +188,23 @@
         </r>
       </text>
     </comment>
+    <comment ref="N1" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">查看数据字典情况：
+目前三种
+中国共产党党员
+中国共产主义青年团团员
+群众</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -429,7 +446,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>员工名称</t>
   </si>
@@ -470,6 +487,9 @@
     <t>岗位等级</t>
   </si>
   <si>
+    <t>政治面貌</t>
+  </si>
+  <si>
     <t>手机号</t>
   </si>
   <si>
@@ -483,6 +503,9 @@
   </si>
   <si>
     <t>330327198805142350</t>
+  </si>
+  <si>
+    <t>中国共产党党员</t>
   </si>
   <si>
     <t>浙江省杭州市西湖区西斗门路7号</t>
@@ -598,10 +621,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -635,14 +658,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -650,8 +665,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,6 +687,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -672,30 +702,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,40 +727,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -762,6 +740,51 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -790,175 +813,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,11 +1012,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,17 +1028,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,49 +1093,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1092,10 +1115,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1104,130 +1127,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1257,9 +1280,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1606,10 +1626,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1621,11 +1641,12 @@
     <col min="7" max="7" width="18.5" customWidth="1"/>
     <col min="10" max="10" width="12.75" customWidth="1"/>
     <col min="11" max="11" width="23.25" customWidth="1"/>
-    <col min="14" max="14" width="12.625" customWidth="1"/>
-    <col min="15" max="15" width="30.75" customWidth="1"/>
+    <col min="14" max="14" width="13.625" customWidth="1"/>
+    <col min="15" max="15" width="12.625" customWidth="1"/>
+    <col min="16" max="16" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1671,22 +1692,25 @@
       <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1">
         <v>32277</v>
@@ -1712,11 +1736,14 @@
       <c r="M2">
         <v>7</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2">
         <v>13989485176</v>
       </c>
-      <c r="O2" t="s">
-        <v>18</v>
+      <c r="P2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1749,30 +1776,30 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1">
         <v>39582</v>
@@ -1781,7 +1808,7 @@
         <v>41043</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1813,45 +1840,45 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -1869,7 +1896,7 @@
         <v>39582</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1901,18 +1928,18 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1953,21 +1980,21 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -2014,30 +2041,30 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>1111</v>
@@ -2046,7 +2073,7 @@
         <v>1111</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1">
         <v>39581</v>
@@ -2087,21 +2114,21 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>2014</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Project.WebApplication/TemplateFile/员工模版.xlsx
+++ b/Project.WebApplication/TemplateFile/员工模版.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,9 @@
     <sheet name="职称记录" sheetId="5" r:id="rId5"/>
     <sheet name="专业技术资格" sheetId="6" r:id="rId6"/>
     <sheet name="年度考核" sheetId="7" r:id="rId7"/>
+    <sheet name="人事工资" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -23,8 +24,8 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
+    <author/>
     <author>Roy</author>
-    <author/>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -41,6 +42,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="B1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>员工编号,请根据目前的编号往上加.不重复</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D1" authorId="0">
       <text>
         <r>
@@ -50,7 +64,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">必填项：0女 1男；
+          <t>必填项：0女 1男；
 请填写0或1的数字</t>
         </r>
       </text>
@@ -64,38 +78,37 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">请根据日期格式写</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">请根据日期格式写</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">请根据日期格式写
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="1">
+          <t>请根据日期格式写</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>请根据日期格式写</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>请根据日期格式写</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -111,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1">
+    <comment ref="J1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -127,7 +140,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="2">
+    <comment ref="K1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">请根据日期格式写
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -143,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="2">
+    <comment ref="M1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -159,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="2">
+    <comment ref="N1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -175,29 +202,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">员工编号,请根据目前的编号往上加.不重复</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">查看数据字典情况：
+    <comment ref="O1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>查看数据字典情况：
 目前三种
 中国共产党党员
 中国共产主义青年团团员
@@ -250,25 +264,41 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Administrator</author>
     <author/>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">根据数据字典中学历类型来填
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>根据数据字典中学位类型来填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>根据数据字典中学历类型来填
 如大专:3 
 本科:4</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -285,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -299,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -348,7 +378,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">日期格式例：2008/05/13</t>
+          <t>日期格式例：2008/05/13</t>
         </r>
       </text>
     </comment>
@@ -388,7 +418,33 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">日期格式例：2008/05/13</t>
+          <t>日期格式例：2008/05/13</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>日期格式例：2008-05-13</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>日期格式例：2008-05-13</t>
         </r>
       </text>
     </comment>
@@ -402,6 +458,19 @@
     <author/>
   </authors>
   <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>日期格式例：2008/05/13</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G1" authorId="0">
       <text>
         <r>
@@ -411,7 +480,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">日期格式例：2008/05/13</t>
+          <t>日期格式例：2008/05/13</t>
         </r>
       </text>
     </comment>
@@ -424,20 +493,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">日期格式例：2008/05/13</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">日期格式例：2008/05/13</t>
+          <t>日期格式例：2008/05/13</t>
         </r>
       </text>
     </comment>
@@ -446,7 +502,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>员工名称</t>
   </si>
@@ -568,9 +624,6 @@
     <t>护士</t>
   </si>
   <si>
-    <t>学士</t>
-  </si>
-  <si>
     <t>学分类型</t>
   </si>
   <si>
@@ -614,19 +667,40 @@
   </si>
   <si>
     <t>优秀</t>
+  </si>
+  <si>
+    <t>进入本单位时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>聘用时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>聘用结束时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位工资</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪级工资</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业/管理1级【170】</t>
+  </si>
+  <si>
+    <t>专业技术一级【3810】</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,151 +716,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -795,198 +745,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="3" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1009,255 +773,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1276,64 +798,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1624,29 +1102,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="3" width="9.375" customWidth="1"/>
     <col min="5" max="5" width="19.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
-    <col min="11" max="11" width="23.25" customWidth="1"/>
-    <col min="14" max="14" width="13.625" customWidth="1"/>
-    <col min="15" max="15" width="12.625" customWidth="1"/>
-    <col min="16" max="16" width="30.75" customWidth="1"/>
+    <col min="7" max="8" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="12" max="12" width="23.25" customWidth="1"/>
+    <col min="15" max="15" width="13.625" customWidth="1"/>
+    <col min="16" max="16" width="12.625" customWidth="1"/>
+    <col min="17" max="17" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1668,35 +1145,38 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1718,52 +1198,54 @@
       <c r="G2" s="1">
         <v>39582</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
+        <v>39582</v>
+      </c>
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>39582</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
         <v>7</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>13989485176</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
@@ -1812,23 +1294,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.375" customWidth="1"/>
     <col min="8" max="8" width="13.125" customWidth="1"/>
@@ -1877,8 +1358,8 @@
       <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
-        <v>40</v>
+      <c r="D2">
+        <v>3</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -1900,23 +1381,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.375" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
@@ -1928,13 +1408,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1952,47 +1432,54 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.375" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="10.375"/>
     <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" t="s">
-        <v>47</v>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
@@ -2008,24 +1495,29 @@
       <c r="E2">
         <v>1234</v>
       </c>
+      <c r="F2" s="1">
+        <v>39581</v>
+      </c>
+      <c r="G2" s="1">
+        <v>40676</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.375" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
@@ -2041,25 +1533,25 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>50</v>
-      </c>
-      <c r="H1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2073,7 +1565,7 @@
         <v>1111</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1">
         <v>39581</v>
@@ -2089,22 +1581,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.375" customWidth="1"/>
   </cols>
@@ -2114,10 +1605,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2128,11 +1619,54 @@
         <v>2014</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>